--- a/4) Product Performance & Ranking/Results/2. Product counts by revenue bands.xlsx
+++ b/4) Product Performance & Ranking/Results/2. Product counts by revenue bands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsrik\Documents\retail-sql-analytics\4) Product Performance &amp; Ranking\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9C4275E4-DFB3-49E0-B80B-3FF7BF1C8B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65FDBBE-7169-45B9-B41A-C109A2DFD57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="21600" windowHeight="11505" xr2:uid="{14227EC8-6AB8-4E79-971A-7ADB478FFF8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{14227EC8-6AB8-4E79-971A-7ADB478FFF8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2. Product counts by revenue ba" sheetId="1" r:id="rId1"/>
@@ -925,10 +925,14 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
